--- a/Resource/excel/battle.xlsx
+++ b/Resource/excel/battle.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>RewardKey</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,76 +45,64 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[{"money":{"money":"90"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"91"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"92"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"93"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"94"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"95"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"96"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"97"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"98"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"99"}}]</t>
-  </si>
-  <si>
     <t>[{"money":{"money":"100"}}]</t>
   </si>
   <si>
-    <t>[{"money":{"money":"101"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"102"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"103"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"104"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"105"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"106"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"107"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"108"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"109"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"110"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"111"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"112"}}]</t>
-  </si>
-  <si>
-    <t>[{"money":{"money":"113"}}]</t>
+    <t>[{"money":{"money":"30"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"50"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"10"}}]</t>
+  </si>
+  <si>
+    <t>[{"money":{"money":"20"}}]</t>
+  </si>
+  <si>
+    <t>[{"money":{"money":"20"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"30"}}]</t>
+  </si>
+  <si>
+    <t>[{"money":{"money":"40"}}]</t>
+  </si>
+  <si>
+    <t>[{"money":{"money":"40"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"50"}}]</t>
+  </si>
+  <si>
+    <t>[{"money":{"money":"60"}}]</t>
+  </si>
+  <si>
+    <t>[{"money":{"money":"60"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"75"}}]</t>
+  </si>
+  <si>
+    <t>[{"money":{"money":"100"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"15"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"70"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"80"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -513,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M27"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -564,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -575,10 +563,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -586,10 +574,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -597,10 +585,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -611,7 +599,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -619,10 +607,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -630,32 +618,32 @@
         <v>1</v>
       </c>
       <c r="C10" s="7">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -663,10 +651,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -674,10 +662,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -685,10 +673,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -696,10 +684,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -707,10 +695,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="7">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -718,32 +706,32 @@
         <v>2</v>
       </c>
       <c r="C18" s="7">
-        <v>999</v>
+        <v>75</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="7">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -751,10 +739,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -762,10 +750,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -773,10 +761,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -784,10 +772,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -795,10 +783,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="7">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -806,10 +794,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="7">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:4" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -817,10 +805,21 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>100</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="7">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>999</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>29</v>
+      <c r="D28" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
